--- a/415PasswordCrackerData.xlsx
+++ b/415PasswordCrackerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexis.saari\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.stowman\Desktop\Password-Hacker-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Password</t>
   </si>
@@ -197,25 +198,31 @@
     <t>MapReduce Control</t>
   </si>
   <si>
-    <t>Brute Force Control</t>
-  </si>
-  <si>
-    <t>MapReduce many passwords</t>
-  </si>
-  <si>
     <t>Trial Number</t>
   </si>
   <si>
-    <t>Brute Force Multithread Search</t>
-  </si>
-  <si>
     <t>Brute Force Multithread Run All</t>
+  </si>
+  <si>
+    <t>Number of Passwords</t>
+  </si>
+  <si>
+    <t>Brute Force Multithread</t>
+  </si>
+  <si>
+    <t>Map Reduce</t>
+  </si>
+  <si>
+    <t>Brute Force Singlethread</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,12 +269,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,25 +560,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -580,26 +590,23 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -616,7 +623,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
@@ -634,7 +641,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -652,7 +659,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -670,7 +677,7 @@
         <v>0.88100000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -688,7 +695,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -706,7 +713,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -724,7 +731,7 @@
         <v>0.90200000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -742,7 +749,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -760,7 +767,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -778,7 +785,7 @@
         <v>0.83799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -796,7 +803,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -814,7 +821,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -832,7 +839,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1582,4 +1589,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>42.334020000000002</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.47486</v>
+      </c>
+      <c r="D2" s="7">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <f>$B$2*A3</f>
+        <v>423.34020000000004</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" ref="B4:B11" si="0">$B$2*A4</f>
+        <v>2116.701</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>4233.402</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6" s="6">
+        <f t="shared" si="0"/>
+        <v>10583.505000000001</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7" s="6">
+        <f t="shared" si="0"/>
+        <v>21167.010000000002</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>750</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>31750.515000000003</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>42334.020000000004</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="0"/>
+        <v>84668.040000000008</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3000</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>127002.06000000001</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/415PasswordCrackerData.xlsx
+++ b/415PasswordCrackerData.xlsx
@@ -561,8 +561,8 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,11 +1593,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1647,9 @@
         <f>$B$2*A3</f>
         <v>423.34020000000004</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>1.998</v>
+      </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1655,10 +1657,12 @@
         <v>50</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" ref="B4:B11" si="0">$B$2*A4</f>
+        <f t="shared" ref="B4:B14" si="0">$B$2*A4</f>
         <v>2116.701</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>2.6760000000000002</v>
+      </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1669,7 +1673,9 @@
         <f t="shared" si="0"/>
         <v>4233.402</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <v>4.7089999999999996</v>
+      </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,7 +1686,9 @@
         <f t="shared" si="0"/>
         <v>10583.505000000001</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <v>10.265000000000001</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,7 +1699,9 @@
         <f t="shared" si="0"/>
         <v>21167.010000000002</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6">
+        <v>19.978999999999999</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1702,7 +1712,9 @@
         <f t="shared" si="0"/>
         <v>31750.515000000003</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>29.131</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,7 +1725,9 @@
         <f t="shared" si="0"/>
         <v>42334.020000000004</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>36.951000000000001</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,7 +1738,9 @@
         <f t="shared" si="0"/>
         <v>84668.040000000008</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6">
+        <v>73.593999999999994</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1735,8 +1751,37 @@
         <f t="shared" si="0"/>
         <v>127002.06000000001</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>110.577</v>
+      </c>
       <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>211670.1</v>
+      </c>
+      <c r="C12">
+        <v>193.61199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7500</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>317505.15000000002</v>
+      </c>
+      <c r="C13">
+        <v>294.10899999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/415PasswordCrackerData.xlsx
+++ b/415PasswordCrackerData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Multiple Passwords" sheetId="2" r:id="rId2"/>
+    <sheet name="Password Length" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Password</t>
   </si>
@@ -204,9 +205,6 @@
     <t>Brute Force Multithread Run All</t>
   </si>
   <si>
-    <t>Number of Passwords</t>
-  </si>
-  <si>
     <t>Brute Force Multithread</t>
   </si>
   <si>
@@ -214,6 +212,15 @@
   </si>
   <si>
     <t>Brute Force Singlethread</t>
+  </si>
+  <si>
+    <t>Digits in Password</t>
+  </si>
+  <si>
+    <t>Brute Force Single Thread</t>
+  </si>
+  <si>
+    <t>Brute Force Singlethread (Days)</t>
   </si>
 </sst>
 </file>
@@ -293,6 +300,3121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multiple Passwords'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force Multithread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.47486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.593999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110.577</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>193.61199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>294.10899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D39A-40B4-B42E-AC97E8A2D7EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="399983304"/>
+        <c:axId val="399983632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="399983304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Passwords</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399983632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="399983632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399983304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multiple Passwords'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force Singlethread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42.334020000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>423.34020000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2116.701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4233.402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10583.505000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21167.010000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31750.515000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42334.020000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84668.040000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127002.06000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>211670.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>317505.15000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5C0-4786-911D-AAEDB26F156E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="391763080"/>
+        <c:axId val="391764392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="391763080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Passwords</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391764392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="391764392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391763080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multiple Passwords'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force Singlethread (Days)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$A$16:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$C$16:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.8997708333333335E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8997708333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4498854166666667E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8997708333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12249427083333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2449885416666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36748281250000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4899770833333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97995416666666679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4699312500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4498854166666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6748281249999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C024-4DB6-8816-8BCC86590B90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="479936944"/>
+        <c:axId val="479933336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="479936944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Passwords</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479933336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479933336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (days)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479936944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9531</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142881</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,9 +3682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,13 +3713,17 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>58</v>
@@ -1593,38 +4719,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1637,9 +4759,8 @@
       <c r="D2" s="7">
         <v>15</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1650,9 +4771,11 @@
       <c r="C3" s="6">
         <v>1.998</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -1663,9 +4786,11 @@
       <c r="C4" s="6">
         <v>2.6760000000000002</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1676,9 +4801,11 @@
       <c r="C5" s="6">
         <v>4.7089999999999996</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -1689,9 +4816,11 @@
       <c r="C6" s="6">
         <v>10.265000000000001</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -1702,9 +4831,11 @@
       <c r="C7" s="6">
         <v>19.978999999999999</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>750</v>
       </c>
@@ -1715,9 +4846,11 @@
       <c r="C8" s="6">
         <v>29.131</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -1728,9 +4861,11 @@
       <c r="C9" s="6">
         <v>36.951000000000001</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1741,9 +4876,11 @@
       <c r="C10" s="6">
         <v>73.593999999999994</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3000</v>
       </c>
@@ -1754,9 +4891,11 @@
       <c r="C11" s="6">
         <v>110.577</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5000</v>
       </c>
@@ -1767,8 +4906,11 @@
       <c r="C12">
         <v>193.61199999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7500</v>
       </c>
@@ -1779,11 +4921,292 @@
       <c r="C13">
         <v>294.10899999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="6">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>42.334020000000002</v>
+      </c>
+      <c r="C16">
+        <f>B16/3600/24</f>
+        <v>4.8997708333333335E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6">
+        <f>$B$2*A17</f>
+        <v>423.34020000000004</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C27" si="1">B17/3600/24</f>
+        <v>4.8997708333333332E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" ref="B18:B27" si="2">$B$2*A18</f>
+        <v>2116.701</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>2.4498854166666667E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="2"/>
+        <v>4233.402</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>4.8997708333333334E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>250</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="2"/>
+        <v>10583.505000000001</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.12249427083333335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>500</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="2"/>
+        <v>21167.010000000002</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.2449885416666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>750</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="2"/>
+        <v>31750.515000000003</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.36748281250000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="2"/>
+        <v>42334.020000000004</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.4899770833333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2000</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="2"/>
+        <v>84668.040000000008</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.97995416666666679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3000</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="2"/>
+        <v>127002.06000000001</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1.4699312500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5000</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="2"/>
+        <v>211670.1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>2.4498854166666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7500</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="2"/>
+        <v>317505.15000000002</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>3.6748281249999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>42.334201999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>B5*B5</f>
+        <v>1792.1846589768038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B13" si="0">B6*B6</f>
+        <v>3211925.8518718025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10316467677922.404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.0642950534961769E+26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.13272396089643E+52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.2830635715888972E+104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/415PasswordCrackerData.xlsx
+++ b/415PasswordCrackerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathan.stowman\Desktop\Password-Hacker-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skyler.svendsen\Desktop\Password-Hacker-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Password</t>
   </si>
@@ -222,6 +222,12 @@
   <si>
     <t>Brute Force Singlethread (Days)</t>
   </si>
+  <si>
+    <t>Multithread</t>
+  </si>
+  <si>
+    <t>MapReduce</t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -285,6 +291,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1696,6 +1704,1103 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multiple Passwords'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Map Reduce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$A$30:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$B$30:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95B1-4419-97FA-1EE6E5DCFBB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="297857640"/>
+        <c:axId val="297859280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="297857640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Passwords</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297859280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297859280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297857640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Between Mutlithread and MapReduce</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multiple Passwords'!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multithread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$A$44:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$B$44:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.47486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.593999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110.577</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>193.61199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>294.10899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91B4-4F95-9DCA-F49023C803F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multiple Passwords'!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MapReduce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$A$44:$A$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Multiple Passwords'!$C$44:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-91B4-4F95-9DCA-F49023C803F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="297857312"/>
+        <c:axId val="297857968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="297857312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Passwords</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297857968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297857968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297857312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -1813,6 +2918,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2969,6 +4154,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3409,6 +5626,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4719,11 +6996,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,7 +7057,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" ref="B4:B14" si="0">$B$2*A4</f>
+        <f t="shared" ref="B4:B13" si="0">$B$2*A4</f>
         <v>2116.701</v>
       </c>
       <c r="C4" s="6">
@@ -5088,9 +7365,252 @@
         <v>3.6748281249999999</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>50</v>
+      </c>
+      <c r="B32" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>250</v>
+      </c>
+      <c r="B34" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>500</v>
+      </c>
+      <c r="B35" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>750</v>
+      </c>
+      <c r="B36" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1000</v>
+      </c>
+      <c r="B37" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2000</v>
+      </c>
+      <c r="B38" s="9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3000</v>
+      </c>
+      <c r="B39" s="9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5000</v>
+      </c>
+      <c r="B40" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7500</v>
+      </c>
+      <c r="B41" s="9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.47486</v>
+      </c>
+      <c r="C44" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1.998</v>
+      </c>
+      <c r="C45" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2.6760000000000002</v>
+      </c>
+      <c r="C46" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47" s="6">
+        <v>4.7089999999999996</v>
+      </c>
+      <c r="C47" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>250</v>
+      </c>
+      <c r="B48" s="6">
+        <v>10.265000000000001</v>
+      </c>
+      <c r="C48" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>500</v>
+      </c>
+      <c r="B49" s="6">
+        <v>19.978999999999999</v>
+      </c>
+      <c r="C49" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>750</v>
+      </c>
+      <c r="B50" s="6">
+        <v>29.131</v>
+      </c>
+      <c r="C50" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1000</v>
+      </c>
+      <c r="B51" s="6">
+        <v>36.951000000000001</v>
+      </c>
+      <c r="C51" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2000</v>
+      </c>
+      <c r="B52" s="6">
+        <v>73.593999999999994</v>
+      </c>
+      <c r="C52" s="9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3000</v>
+      </c>
+      <c r="B53" s="6">
+        <v>110.577</v>
+      </c>
+      <c r="C53" s="9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5000</v>
+      </c>
+      <c r="B54">
+        <v>193.61199999999999</v>
+      </c>
+      <c r="C54" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7500</v>
+      </c>
+      <c r="B55">
+        <v>294.10899999999998</v>
+      </c>
+      <c r="C55" s="9">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5162,7 +7682,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B13" si="0">B6*B6</f>
+        <f t="shared" ref="B7:B11" si="0">B6*B6</f>
         <v>3211925.8518718025</v>
       </c>
     </row>
